--- a/wash_P/CAN.xlsx
+++ b/wash_P/CAN.xlsx
@@ -27775,7 +27775,7 @@
         <v>0</v>
       </c>
       <c r="CB9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC9" t="n">
         <v>0</v>
@@ -27790,7 +27790,7 @@
         <v>0</v>
       </c>
       <c r="CG9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH9" t="n">
         <v>0</v>
@@ -27817,7 +27817,7 @@
         <v>0</v>
       </c>
       <c r="CP9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ9" t="n">
         <v>0</v>
@@ -34592,10 +34592,10 @@
         <v>0</v>
       </c>
       <c r="JG11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JI11" t="n">
         <v>0</v>
@@ -40374,7 +40374,7 @@
         <v>0</v>
       </c>
       <c r="DE13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF13" t="n">
         <v>0</v>
@@ -48073,7 +48073,7 @@
         <v>0</v>
       </c>
       <c r="VR15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="VS15" t="n">
         <v>0</v>
@@ -58204,7 +58204,7 @@
         <v>0</v>
       </c>
       <c r="AFG18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AFH18" t="n">
         <v>0</v>
@@ -87468,7 +87468,7 @@
         <v>0</v>
       </c>
       <c r="FK28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FL28" t="n">
         <v>0</v>
@@ -90596,7 +90596,7 @@
         <v>0</v>
       </c>
       <c r="FK29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FL29" t="n">
         <v>0</v>
@@ -92315,7 +92315,7 @@
         <v>0</v>
       </c>
       <c r="ABL29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ABM29" t="n">
         <v>0</v>
@@ -92360,7 +92360,7 @@
         <v>0</v>
       </c>
       <c r="ACA29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ACB29" t="n">
         <v>0</v>
